--- a/VT_REG1_ELCDMD_K04.xlsx
+++ b/VT_REG1_ELCDMD_K04.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EF6A03-49E0-4B63-9A37-75D0E4D11CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F6A251-2D3A-4D9F-B4EF-679D7E9417B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{047E4344-2B87-4188-BA09-3302A30F5AF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{047E4344-2B87-4188-BA09-3302A30F5AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -299,19 +299,19 @@
     <t>OUTPUT~ELC_PRIS</t>
   </si>
   <si>
+    <t>*Comm-OUT-A</t>
+  </si>
+  <si>
+    <t>*VDA_FLOP</t>
+  </si>
+  <si>
+    <t>*PRC_CAPACT</t>
+  </si>
+  <si>
+    <t>CAP2ACT</t>
+  </si>
+  <si>
     <t>FX</t>
-  </si>
-  <si>
-    <t>*Comm-OUT-A</t>
-  </si>
-  <si>
-    <t>*VDA_FLOP</t>
-  </si>
-  <si>
-    <t>*PRC_CAPACT</t>
-  </si>
-  <si>
-    <t>CAP2ACT</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -564,7 +564,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="24"/>
@@ -1398,7 +1397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA31763-57A5-40A0-974A-970AFC6072D7}">
   <dimension ref="B1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -1472,7 +1471,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>11</v>
@@ -1484,7 +1483,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>14</v>
@@ -1499,10 +1498,10 @@
         <v>17</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -1541,7 +1540,7 @@
         <f>31.536</f>
         <v>31.536000000000001</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="20">
         <v>31.536000000000001</v>
       </c>
     </row>
@@ -1553,7 +1552,7 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J15" s="20"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F16" s="5"/>
@@ -1587,7 +1586,7 @@
   <dimension ref="B2:M4"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1600,76 +1599,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="24" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="26">
         <v>100</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="26">
         <v>1</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="26">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="26">
         <v>2018</v>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="26">
         <v>1000</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="25" t="s">
         <v>67</v>
       </c>
       <c r="L4" s="4"/>
@@ -1685,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB135F7C-59ED-4189-A3AF-3FB298048D24}">
   <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1744,7 +1743,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>64</v>
@@ -1764,7 +1763,7 @@
         <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>64</v>
@@ -1784,7 +1783,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>64</v>
@@ -1872,19 +1871,19 @@
       <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1908,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B52D5C-68B4-47E3-AEDA-1F3B55445016}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2002,6 +2001,7 @@
         <v>2021</v>
       </c>
       <c r="G5" s="15">
+        <f>0</f>
         <v>0</v>
       </c>
     </row>
@@ -2025,7 +2025,8 @@
         <v>2022</v>
       </c>
       <c r="G6" s="15">
-        <v>10</v>
+        <f>0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -2047,9 +2048,9 @@
       <c r="F7" s="15">
         <v>2023</v>
       </c>
-      <c r="G7" s="19">
-        <f>G6*(1+$I$4)</f>
-        <v>15</v>
+      <c r="G7" s="15">
+        <f>0</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -2071,9 +2072,8 @@
       <c r="F8" s="15">
         <v>2024</v>
       </c>
-      <c r="G8" s="19">
-        <f>G7</f>
-        <v>15</v>
+      <c r="G8" s="15">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -2095,9 +2095,9 @@
       <c r="F9" s="15">
         <v>2025</v>
       </c>
-      <c r="G9" s="19">
-        <f t="shared" ref="G9:G11" si="1">G8</f>
-        <v>15</v>
+      <c r="G9" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
@@ -2119,9 +2119,9 @@
       <c r="F10" s="15">
         <v>2026</v>
       </c>
-      <c r="G10" s="19">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="G10" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -2143,9 +2143,9 @@
       <c r="F11" s="15">
         <v>2027</v>
       </c>
-      <c r="G11" s="19">
-        <f t="shared" si="1"/>
-        <v>15</v>
+      <c r="G11" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -2167,9 +2167,9 @@
       <c r="F12" s="15">
         <v>2028</v>
       </c>
-      <c r="G12" s="19">
-        <f t="shared" ref="G12:G16" si="2">G11</f>
-        <v>15</v>
+      <c r="G12" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -2191,9 +2191,9 @@
       <c r="F13" s="15">
         <v>2029</v>
       </c>
-      <c r="G13" s="19">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="G13" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -2215,9 +2215,9 @@
       <c r="F14" s="15">
         <v>2030</v>
       </c>
-      <c r="G14" s="19">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="G14" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -2239,9 +2239,9 @@
       <c r="F15" s="15">
         <v>2031</v>
       </c>
-      <c r="G15" s="19">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="G15" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -2263,9 +2263,9 @@
       <c r="F16" s="15">
         <v>2032</v>
       </c>
-      <c r="G16" s="19">
-        <f t="shared" si="2"/>
-        <v>15</v>
+      <c r="G16" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -2287,9 +2287,9 @@
       <c r="F17" s="15">
         <v>2033</v>
       </c>
-      <c r="G17" s="19">
-        <f>G16</f>
-        <v>15</v>
+      <c r="G17" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -2311,9 +2311,9 @@
       <c r="F18" s="15">
         <v>2034</v>
       </c>
-      <c r="G18" s="19">
-        <f t="shared" ref="G18:G21" si="3">G17</f>
-        <v>15</v>
+      <c r="G18" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -2335,9 +2335,9 @@
       <c r="F19" s="15">
         <v>2035</v>
       </c>
-      <c r="G19" s="19">
-        <f t="shared" si="3"/>
-        <v>15</v>
+      <c r="G19" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -2359,9 +2359,9 @@
       <c r="F20" s="15">
         <v>2036</v>
       </c>
-      <c r="G20" s="19">
-        <f t="shared" si="3"/>
-        <v>15</v>
+      <c r="G20" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -2383,9 +2383,9 @@
       <c r="F21" s="15">
         <v>2037</v>
       </c>
-      <c r="G21" s="19">
-        <f t="shared" si="3"/>
-        <v>15</v>
+      <c r="G21" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -2407,9 +2407,9 @@
       <c r="F22" s="15">
         <v>2038</v>
       </c>
-      <c r="G22" s="19">
-        <f>G21</f>
-        <v>15</v>
+      <c r="G22" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -2431,9 +2431,9 @@
       <c r="F23" s="15">
         <v>2039</v>
       </c>
-      <c r="G23" s="19">
-        <f t="shared" ref="G23:G24" si="4">G22</f>
-        <v>15</v>
+      <c r="G23" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -2455,9 +2455,9 @@
       <c r="F24" s="15">
         <v>2040</v>
       </c>
-      <c r="G24" s="19">
-        <f t="shared" si="4"/>
-        <v>15</v>
+      <c r="G24" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -2479,9 +2479,9 @@
       <c r="F25" s="15">
         <v>2041</v>
       </c>
-      <c r="G25" s="19">
-        <f>G24</f>
-        <v>15</v>
+      <c r="G25" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -2503,9 +2503,9 @@
       <c r="F26" s="15">
         <v>2042</v>
       </c>
-      <c r="G26" s="19">
-        <f t="shared" ref="G26:G30" si="5">G25</f>
-        <v>15</v>
+      <c r="G26" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -2527,9 +2527,9 @@
       <c r="F27" s="15">
         <v>2043</v>
       </c>
-      <c r="G27" s="19">
-        <f t="shared" si="5"/>
-        <v>15</v>
+      <c r="G27" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -2551,9 +2551,9 @@
       <c r="F28" s="15">
         <v>2044</v>
       </c>
-      <c r="G28" s="19">
-        <f t="shared" si="5"/>
-        <v>15</v>
+      <c r="G28" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -2575,9 +2575,9 @@
       <c r="F29" s="15">
         <v>2045</v>
       </c>
-      <c r="G29" s="19">
-        <f t="shared" si="5"/>
-        <v>15</v>
+      <c r="G29" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -2599,9 +2599,9 @@
       <c r="F30" s="15">
         <v>2046</v>
       </c>
-      <c r="G30" s="19">
-        <f t="shared" si="5"/>
-        <v>15</v>
+      <c r="G30" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -2623,9 +2623,9 @@
       <c r="F31" s="15">
         <v>2047</v>
       </c>
-      <c r="G31" s="19">
-        <f>G30</f>
-        <v>15</v>
+      <c r="G31" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -2647,9 +2647,9 @@
       <c r="F32" s="15">
         <v>2048</v>
       </c>
-      <c r="G32" s="19">
-        <f t="shared" ref="G32" si="6">G31</f>
-        <v>15</v>
+      <c r="G32" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -2671,9 +2671,9 @@
       <c r="F33" s="15">
         <v>2049</v>
       </c>
-      <c r="G33" s="19">
-        <f>G32</f>
-        <v>15</v>
+      <c r="G33" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -2695,9 +2695,9 @@
       <c r="F34" s="15">
         <v>2050</v>
       </c>
-      <c r="G34" s="19">
-        <f t="shared" ref="G34" si="7">G33</f>
-        <v>15</v>
+      <c r="G34" s="15">
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/VT_REG1_ELCDMD_K04.xlsx
+++ b/VT_REG1_ELCDMD_K04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F6A251-2D3A-4D9F-B4EF-679D7E9417B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EF4D6E-277D-4197-8998-6E5F281783C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{047E4344-2B87-4188-BA09-3302A30F5AF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{047E4344-2B87-4188-BA09-3302A30F5AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -245,9 +245,6 @@
     <t>Portefolio electricity demand commodity</t>
   </si>
   <si>
-    <t>Growth pr. year</t>
-  </si>
-  <si>
     <t>*Said MW before</t>
   </si>
   <si>
@@ -312,6 +309,9 @@
   </si>
   <si>
     <t>FX</t>
+  </si>
+  <si>
+    <t>Growth pr. year compared to 2023</t>
   </si>
 </sst>
 </file>
@@ -1471,7 +1471,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>11</v>
@@ -1483,7 +1483,7 @@
         <v>13</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>14</v>
@@ -1498,10 +1498,10 @@
         <v>17</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
         <v>Portefolio electricity demand process</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="5" t="str">
         <f>Commodities!D4</f>
@@ -1547,7 +1547,7 @@
     <row r="11" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F14" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J14" s="9"/>
     </row>
@@ -1616,22 +1616,22 @@
         <v>10</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="J3" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K3" s="24" t="s">
         <v>7</v>
@@ -1641,16 +1641,16 @@
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="26">
         <v>100</v>
@@ -1669,7 +1669,7 @@
         <v>1000</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -1684,7 +1684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB135F7C-59ED-4189-A3AF-3FB298048D24}">
   <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1743,10 +1743,10 @@
         <v>22</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -1754,19 +1754,19 @@
         <v>23</v>
       </c>
       <c r="D5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -1774,19 +1774,19 @@
         <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1861,40 +1861,40 @@
         <v>22</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="H4" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H6" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1907,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B52D5C-68B4-47E3-AEDA-1F3B55445016}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1921,7 +1921,7 @@
     <col min="6" max="6" width="12.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" style="4" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="4"/>
-    <col min="9" max="9" width="17.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="28.88671875" style="4" customWidth="1"/>
     <col min="10" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
@@ -1958,7 +1958,7 @@
         <v>54</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -1977,8 +1977,8 @@
         <v>43</v>
       </c>
       <c r="I4" s="18">
-        <f>50%</f>
-        <v>0.5</v>
+        <f>10%</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -2049,8 +2049,8 @@
         <v>2023</v>
       </c>
       <c r="G7" s="15">
-        <f>0</f>
-        <v>0</v>
+        <f>10</f>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,6 @@
         <v>2025</v>
       </c>
       <c r="G9" s="15">
-        <f>10</f>
         <v>10</v>
       </c>
     </row>
@@ -2120,7 +2119,6 @@
         <v>2026</v>
       </c>
       <c r="G10" s="15">
-        <f>10</f>
         <v>10</v>
       </c>
     </row>
@@ -2144,7 +2142,6 @@
         <v>2027</v>
       </c>
       <c r="G11" s="15">
-        <f>10</f>
         <v>10</v>
       </c>
     </row>
@@ -2168,7 +2165,6 @@
         <v>2028</v>
       </c>
       <c r="G12" s="15">
-        <f>10</f>
         <v>10</v>
       </c>
     </row>
@@ -2192,7 +2188,6 @@
         <v>2029</v>
       </c>
       <c r="G13" s="15">
-        <f>10</f>
         <v>10</v>
       </c>
     </row>
@@ -2216,8 +2211,8 @@
         <v>2030</v>
       </c>
       <c r="G14" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f>G13+$G$7*($I$4)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -2240,8 +2235,8 @@
         <v>2031</v>
       </c>
       <c r="G15" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f t="shared" ref="G15:G24" si="1">G14+$G$7*($I$4)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -2264,8 +2259,8 @@
         <v>2032</v>
       </c>
       <c r="G16" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -2288,8 +2283,8 @@
         <v>2033</v>
       </c>
       <c r="G17" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -2312,8 +2307,8 @@
         <v>2034</v>
       </c>
       <c r="G18" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -2336,8 +2331,8 @@
         <v>2035</v>
       </c>
       <c r="G19" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -2360,8 +2355,8 @@
         <v>2036</v>
       </c>
       <c r="G20" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -2384,8 +2379,8 @@
         <v>2037</v>
       </c>
       <c r="G21" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -2408,8 +2403,8 @@
         <v>2038</v>
       </c>
       <c r="G22" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -2432,8 +2427,8 @@
         <v>2039</v>
       </c>
       <c r="G23" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -2456,8 +2451,8 @@
         <v>2040</v>
       </c>
       <c r="G24" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -2480,8 +2475,8 @@
         <v>2041</v>
       </c>
       <c r="G25" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f>21</f>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -2504,8 +2499,8 @@
         <v>2042</v>
       </c>
       <c r="G26" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f>21</f>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -2528,8 +2523,8 @@
         <v>2043</v>
       </c>
       <c r="G27" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f>21</f>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -2552,8 +2547,8 @@
         <v>2044</v>
       </c>
       <c r="G28" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f>21</f>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -2576,8 +2571,8 @@
         <v>2045</v>
       </c>
       <c r="G29" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f>21</f>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -2600,8 +2595,8 @@
         <v>2046</v>
       </c>
       <c r="G30" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f>21</f>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -2624,8 +2619,8 @@
         <v>2047</v>
       </c>
       <c r="G31" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f>21</f>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -2648,8 +2643,8 @@
         <v>2048</v>
       </c>
       <c r="G32" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f>21</f>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -2672,8 +2667,8 @@
         <v>2049</v>
       </c>
       <c r="G33" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f>21</f>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -2696,8 +2691,8 @@
         <v>2050</v>
       </c>
       <c r="G34" s="15">
-        <f>10</f>
-        <v>10</v>
+        <f>21</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/VT_REG1_ELCDMD_K04.xlsx
+++ b/VT_REG1_ELCDMD_K04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EF4D6E-277D-4197-8998-6E5F281783C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF2E76C-EB04-4750-A5B4-D74AEFF27C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{047E4344-2B87-4188-BA09-3302A30F5AF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{047E4344-2B87-4188-BA09-3302A30F5AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
   <si>
     <t>Description</t>
   </si>
@@ -311,7 +311,19 @@
     <t>FX</t>
   </si>
   <si>
-    <t>Growth pr. year compared to 2023</t>
+    <t>Growth pr. year compared to 2030</t>
+  </si>
+  <si>
+    <t>ELC_PRIS_1</t>
+  </si>
+  <si>
+    <t>OUTPUT~ELC_PRIS_1</t>
+  </si>
+  <si>
+    <t>FT-ELCP_1</t>
+  </si>
+  <si>
+    <t>FI_T</t>
   </si>
 </sst>
 </file>
@@ -780,16 +792,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1600970</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76971</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>107758</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>61577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2270606</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>146242</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>244147</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>130849</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -804,8 +816,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8674485" y="1554789"/>
-          <a:ext cx="2509212" cy="992908"/>
+          <a:off x="14077758" y="1354668"/>
+          <a:ext cx="1960571" cy="992908"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1583,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA636457-E8E9-4E1B-88BD-7AAB5EBBC414}">
-  <dimension ref="B2:M4"/>
+  <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1673,6 +1685,88 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E7" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="26">
+        <v>100</v>
+      </c>
+      <c r="G9" s="26">
+        <v>1</v>
+      </c>
+      <c r="H9" s="26">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="26">
+        <v>2018</v>
+      </c>
+      <c r="J9" s="26">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1907,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B52D5C-68B4-47E3-AEDA-1F3B55445016}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2049,172 +2143,171 @@
         <v>2023</v>
       </c>
       <c r="G7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>REG1</v>
+      </c>
+      <c r="D8" s="15" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="15">
+        <v>2024</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>REG1</v>
+      </c>
+      <c r="D9" s="15" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="15">
+        <v>2025</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>REG1</v>
+      </c>
+      <c r="D10" s="15" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="15">
+        <v>2026</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>REG1</v>
+      </c>
+      <c r="D11" s="15" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="15">
+        <v>2027</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>REG1</v>
+      </c>
+      <c r="D12" s="15" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="15">
+        <v>2028</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>REG1</v>
+      </c>
+      <c r="D13" s="15" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="15">
+        <v>2029</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C14" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>REG1</v>
+      </c>
+      <c r="D14" s="15" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="15">
+        <v>2030</v>
+      </c>
+      <c r="G14" s="15">
         <f>10</f>
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C8" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>REG1</v>
-      </c>
-      <c r="D8" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="15">
-        <v>2024</v>
-      </c>
-      <c r="G8" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C9" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>REG1</v>
-      </c>
-      <c r="D9" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="15">
-        <v>2025</v>
-      </c>
-      <c r="G9" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C10" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>REG1</v>
-      </c>
-      <c r="D10" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="15">
-        <v>2026</v>
-      </c>
-      <c r="G10" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C11" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>REG1</v>
-      </c>
-      <c r="D11" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="15">
-        <v>2027</v>
-      </c>
-      <c r="G11" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C12" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>REG1</v>
-      </c>
-      <c r="D12" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="15">
-        <v>2028</v>
-      </c>
-      <c r="G12" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C13" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>REG1</v>
-      </c>
-      <c r="D13" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="15">
-        <v>2029</v>
-      </c>
-      <c r="G13" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C14" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>REG1</v>
-      </c>
-      <c r="D14" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="15">
-        <v>2030</v>
-      </c>
-      <c r="G14" s="15">
-        <f>G13+$G$7*($I$4)</f>
-        <v>11</v>
-      </c>
-    </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="str">
         <f>Commodities!$D$4</f>
@@ -2235,8 +2328,8 @@
         <v>2031</v>
       </c>
       <c r="G15" s="15">
-        <f t="shared" ref="G15:G24" si="1">G14+$G$7*($I$4)</f>
-        <v>12</v>
+        <f>G14+$G$14*($I$4)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -2259,226 +2352,226 @@
         <v>2032</v>
       </c>
       <c r="G16" s="15">
+        <f t="shared" ref="G16:G34" si="1">G15+$G$14*($I$4)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C17" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>REG1</v>
+      </c>
+      <c r="D17" s="15" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="15">
+        <v>2033</v>
+      </c>
+      <c r="G17" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C17" s="15" t="str">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C18" s="15" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D17" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="15">
-        <v>2033</v>
-      </c>
-      <c r="G17" s="15">
+      <c r="D18" s="15" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="15">
+        <v>2034</v>
+      </c>
+      <c r="G18" s="15">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C18" s="15" t="str">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C19" s="15" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D18" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="15">
-        <v>2034</v>
-      </c>
-      <c r="G18" s="15">
+      <c r="D19" s="15" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="15">
+        <v>2035</v>
+      </c>
+      <c r="G19" s="15">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C19" s="15" t="str">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C20" s="15" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D19" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="15">
-        <v>2035</v>
-      </c>
-      <c r="G19" s="15">
+      <c r="D20" s="15" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="15">
+        <v>2036</v>
+      </c>
+      <c r="G20" s="15">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C20" s="15" t="str">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C21" s="15" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D20" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="15">
-        <v>2036</v>
-      </c>
-      <c r="G20" s="15">
+      <c r="D21" s="15" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="15">
+        <v>2037</v>
+      </c>
+      <c r="G21" s="15">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C21" s="15" t="str">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="15" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C22" s="15" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D21" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="15">
-        <v>2037</v>
-      </c>
-      <c r="G21" s="15">
+      <c r="D22" s="15" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="15">
+        <v>2038</v>
+      </c>
+      <c r="G22" s="15">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C22" s="15" t="str">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C23" s="15" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D22" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="15">
-        <v>2038</v>
-      </c>
-      <c r="G22" s="15">
+      <c r="D23" s="15" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="15">
+        <v>2039</v>
+      </c>
+      <c r="G23" s="15">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C23" s="15" t="str">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C24" s="15" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D23" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="15">
-        <v>2039</v>
-      </c>
-      <c r="G23" s="15">
+      <c r="D24" s="15" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="15">
+        <v>2040</v>
+      </c>
+      <c r="G24" s="15">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C24" s="15" t="str">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C25" s="15" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D24" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="15">
-        <v>2040</v>
-      </c>
-      <c r="G24" s="15">
+      <c r="D25" s="15" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="15">
+        <v>2041</v>
+      </c>
+      <c r="G25" s="15">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C25" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>REG1</v>
-      </c>
-      <c r="D25" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="15">
-        <v>2041</v>
-      </c>
-      <c r="G25" s="15">
-        <f>21</f>
-        <v>21</v>
-      </c>
-    </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="str">
         <f>Commodities!$D$4</f>
@@ -2499,8 +2592,8 @@
         <v>2042</v>
       </c>
       <c r="G26" s="15">
-        <f>21</f>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -2523,8 +2616,8 @@
         <v>2043</v>
       </c>
       <c r="G27" s="15">
-        <f>21</f>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -2547,8 +2640,8 @@
         <v>2044</v>
       </c>
       <c r="G28" s="15">
-        <f>21</f>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -2571,8 +2664,8 @@
         <v>2045</v>
       </c>
       <c r="G29" s="15">
-        <f>21</f>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -2595,8 +2688,8 @@
         <v>2046</v>
       </c>
       <c r="G30" s="15">
-        <f>21</f>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -2619,8 +2712,8 @@
         <v>2047</v>
       </c>
       <c r="G31" s="15">
-        <f>21</f>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -2643,8 +2736,8 @@
         <v>2048</v>
       </c>
       <c r="G32" s="15">
-        <f>21</f>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -2667,8 +2760,8 @@
         <v>2049</v>
       </c>
       <c r="G33" s="15">
-        <f>21</f>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -2691,8 +2784,8 @@
         <v>2050</v>
       </c>
       <c r="G34" s="15">
-        <f>21</f>
-        <v>21</v>
+        <f t="shared" si="1"/>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/VT_REG1_ELCDMD_K04.xlsx
+++ b/VT_REG1_ELCDMD_K04.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF2E76C-EB04-4750-A5B4-D74AEFF27C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD57837D-E486-4F71-A036-9B069392A879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{047E4344-2B87-4188-BA09-3302A30F5AF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{047E4344-2B87-4188-BA09-3302A30F5AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -1597,7 +1597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA636457-E8E9-4E1B-88BD-7AAB5EBBC414}">
   <dimension ref="B2:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -2001,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B52D5C-68B4-47E3-AEDA-1F3B55445016}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2071,8 +2071,8 @@
         <v>43</v>
       </c>
       <c r="I4" s="18">
-        <f>10%</f>
-        <v>0.1</v>
+        <f>1%</f>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="G15" s="15">
         <f>G14+$G$14*($I$4)</f>
-        <v>11</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="G16" s="15">
         <f t="shared" ref="G16:G34" si="1">G15+$G$14*($I$4)</f>
-        <v>12</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="G17" s="15">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>10.299999999999999</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="G18" s="15">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>10.399999999999999</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="G19" s="15">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>10.499999999999998</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="G20" s="15">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>10.599999999999998</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="G21" s="15">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>10.699999999999998</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="G22" s="15">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>10.799999999999997</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="G23" s="15">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>10.899999999999997</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="G24" s="15">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>10.999999999999996</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="G25" s="15">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>11.099999999999996</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="G26" s="15">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>11.199999999999996</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="G27" s="15">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>11.299999999999995</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="G28" s="15">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>11.399999999999995</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="G29" s="15">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>11.499999999999995</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="G30" s="15">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>11.599999999999994</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="G31" s="15">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>11.699999999999994</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="G32" s="15">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>11.799999999999994</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="G33" s="15">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>11.899999999999993</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="G34" s="15">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>11.999999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/VT_REG1_ELCDMD_K04.xlsx
+++ b/VT_REG1_ELCDMD_K04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD57837D-E486-4F71-A036-9B069392A879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509C2533-3E56-4459-89A6-7528BCDD5AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{047E4344-2B87-4188-BA09-3302A30F5AF9}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="85">
   <si>
     <t>Description</t>
   </si>
@@ -1999,10 +1999,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B52D5C-68B4-47E3-AEDA-1F3B55445016}">
-  <dimension ref="B1:I34"/>
+  <dimension ref="B1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2129,7 +2129,7 @@
         <v>ELC_DEM</v>
       </c>
       <c r="C7" s="15" t="str">
-        <f t="shared" ref="C7:C34" si="0">C6</f>
+        <f t="shared" ref="C7:C37" si="0">C6</f>
         <v>REG1</v>
       </c>
       <c r="D7" s="15" t="str">
@@ -2352,7 +2352,7 @@
         <v>2032</v>
       </c>
       <c r="G16" s="15">
-        <f t="shared" ref="G16:G34" si="1">G15+$G$14*($I$4)</f>
+        <f t="shared" ref="G16:G37" si="1">G15+$G$14*($I$4)</f>
         <v>10.199999999999999</v>
       </c>
     </row>
@@ -2786,6 +2786,78 @@
       <c r="G34" s="15">
         <f t="shared" si="1"/>
         <v>11.999999999999993</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C35" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>REG1</v>
+      </c>
+      <c r="D35" s="15" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="15">
+        <v>2051</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="1"/>
+        <v>12.099999999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="15" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C36" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>REG1</v>
+      </c>
+      <c r="D36" s="15" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="15">
+        <v>2052</v>
+      </c>
+      <c r="G36" s="15">
+        <f t="shared" si="1"/>
+        <v>12.199999999999992</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C37" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>REG1</v>
+      </c>
+      <c r="D37" s="15" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="15">
+        <v>2053</v>
+      </c>
+      <c r="G37" s="15">
+        <f t="shared" si="1"/>
+        <v>12.299999999999992</v>
       </c>
     </row>
   </sheetData>

--- a/VT_REG1_ELCDMD_K04.xlsx
+++ b/VT_REG1_ELCDMD_K04.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\KModel_04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509C2533-3E56-4459-89A6-7528BCDD5AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0F1B95-F2DA-44F9-96A2-1CDC03FBFACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{047E4344-2B87-4188-BA09-3302A30F5AF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{047E4344-2B87-4188-BA09-3302A30F5AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -1409,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA31763-57A5-40A0-974A-970AFC6072D7}">
   <dimension ref="B1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1598,7 +1598,7 @@
   <dimension ref="B2:M9"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1778,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB135F7C-59ED-4189-A3AF-3FB298048D24}">
   <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1894,7 +1894,7 @@
   <dimension ref="B1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2001,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B52D5C-68B4-47E3-AEDA-1F3B55445016}">
   <dimension ref="B1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>

--- a/VT_REG1_ELCDMD_K04.xlsx
+++ b/VT_REG1_ELCDMD_K04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_models\KModel_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0F1B95-F2DA-44F9-96A2-1CDC03FBFACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF2E578-D797-4F95-AEA1-11E83791B29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{047E4344-2B87-4188-BA09-3302A30F5AF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{047E4344-2B87-4188-BA09-3302A30F5AF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>Description</t>
   </si>
@@ -324,6 +324,27 @@
   </si>
   <si>
     <t>FI_T</t>
+  </si>
+  <si>
+    <t>Define the demand process that the portefolio produces energy for.</t>
+  </si>
+  <si>
+    <t>Old, was looking at trying to define two different processes - for the price setting issue I had</t>
+  </si>
+  <si>
+    <t>Alternative output ELC_PRIS defined here.  Fuel Technology - Large Data Centers Electricity</t>
+  </si>
+  <si>
+    <t>Defining ELC_DEM, ELC_PRIS, ELCP</t>
+  </si>
+  <si>
+    <t>stock of Portefolio electricity demand process</t>
+  </si>
+  <si>
+    <t>Defining Portefolio electricity demand process and Electricity for portefolio fuel transformation process</t>
+  </si>
+  <si>
+    <t>Linear demand growth defined</t>
   </si>
 </sst>
 </file>
@@ -333,7 +354,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +450,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -556,7 +585,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -571,7 +600,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -579,12 +607,16 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="24"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="24" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="24" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="24" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="24" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Comma 2" xfId="5" xr:uid="{21F3E07D-1E85-4F9B-84DB-8836DAA76406}"/>
@@ -1334,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5549E7C-99D2-4785-B491-27D145F8E68E}">
-  <dimension ref="B1:C12"/>
+  <dimension ref="B1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1355,7 +1387,9 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -1384,20 +1418,40 @@
       <c r="B9" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="C9" s="27" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>50</v>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1407,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA31763-57A5-40A0-974A-970AFC6072D7}">
-  <dimension ref="B1:P24"/>
+  <dimension ref="B1:P21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1552,26 +1606,47 @@
         <f>31.536</f>
         <v>31.536000000000001</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="19">
         <v>31.536000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F14" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="J15" s="19"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F16" s="5"/>
-    </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -1579,11 +1654,26 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="21" spans="7:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="7:14" x14ac:dyDescent="0.25">
-      <c r="J24" s="4">
-        <v>1</v>
-      </c>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="4:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1595,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA636457-E8E9-4E1B-88BD-7AAB5EBBC414}">
-  <dimension ref="B2:M9"/>
+  <dimension ref="B2:M10"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1611,161 +1701,166 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="22" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="24">
         <v>100</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="24">
         <v>1</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="24">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="24">
         <v>2018</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="24">
         <v>1000</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="23" t="s">
         <v>66</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="25"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="24">
         <v>100</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="24">
         <v>1</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="24">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="24">
         <v>2018</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="24">
         <v>1000</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="23" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="28" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1778,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB135F7C-59ED-4189-A3AF-3FB298048D24}">
   <dimension ref="B2:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1798,28 +1893,28 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1827,10 +1922,10 @@
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="27" t="s">
         <v>57</v>
       </c>
       <c r="F4" s="4" t="s">
@@ -1847,10 +1942,10 @@
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="27" t="s">
         <v>62</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -1867,10 +1962,10 @@
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="26" t="s">
         <v>72</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1894,7 +1989,7 @@
   <dimension ref="B1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1913,31 +2008,31 @@
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1945,10 +2040,10 @@
       <c r="B3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="27" t="s">
         <v>56</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -1965,19 +2060,19 @@
       <c r="B4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2002,7 +2097,7 @@
   <dimension ref="B1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2020,7 +2115,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2033,829 +2128,829 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <f>1%</f>
         <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C5" s="15" t="str">
+      <c r="B5" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C5" s="14" t="str">
         <f>C2</f>
         <v>REG1</v>
       </c>
-      <c r="D5" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="D5" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="14">
         <v>2021</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C6" s="15" t="str">
+      <c r="B6" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C6" s="14" t="str">
         <f>C5</f>
         <v>REG1</v>
       </c>
-      <c r="D6" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="D6" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="14">
         <v>2022</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C7" s="15" t="str">
+      <c r="B7" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C7" s="14" t="str">
         <f t="shared" ref="C7:C37" si="0">C6</f>
         <v>REG1</v>
       </c>
-      <c r="D7" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="D7" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="14">
         <v>2023</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C8" s="15" t="str">
+      <c r="B8" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C8" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D8" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="D8" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="14">
         <v>2024</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C9" s="15" t="str">
+      <c r="B9" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C9" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D9" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="15">
+      <c r="D9" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="14">
         <v>2025</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C10" s="15" t="str">
+      <c r="B10" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C10" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D10" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="15">
+      <c r="D10" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="14">
         <v>2026</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C11" s="15" t="str">
+      <c r="B11" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C11" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D11" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="15">
+      <c r="D11" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="14">
         <v>2027</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C12" s="15" t="str">
+      <c r="B12" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C12" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D12" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="15">
+      <c r="D12" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="14">
         <v>2028</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C13" s="15" t="str">
+      <c r="B13" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C13" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D13" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="D13" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="14">
         <v>2029</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C14" s="15" t="str">
+      <c r="B14" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C14" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D14" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="15">
+      <c r="D14" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="14">
         <v>2030</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <f>10</f>
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C15" s="15" t="str">
+      <c r="B15" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C15" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D15" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="15">
+      <c r="D15" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="14">
         <v>2031</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <f>G14+$G$14*($I$4)</f>
         <v>10.1</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C16" s="15" t="str">
+      <c r="B16" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C16" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D16" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="15">
+      <c r="D16" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="14">
         <v>2032</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="14">
         <f t="shared" ref="G16:G37" si="1">G15+$G$14*($I$4)</f>
         <v>10.199999999999999</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C17" s="15" t="str">
+      <c r="B17" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C17" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D17" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="15">
+      <c r="D17" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="14">
         <v>2033</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="14">
         <f t="shared" si="1"/>
         <v>10.299999999999999</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C18" s="15" t="str">
+      <c r="B18" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C18" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D18" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="15">
+      <c r="D18" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="14">
         <v>2034</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="14">
         <f t="shared" si="1"/>
         <v>10.399999999999999</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C19" s="15" t="str">
+      <c r="B19" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C19" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D19" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="15">
+      <c r="D19" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="14">
         <v>2035</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <f t="shared" si="1"/>
         <v>10.499999999999998</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C20" s="15" t="str">
+      <c r="B20" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C20" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D20" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="15">
+      <c r="D20" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="14">
         <v>2036</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G20" s="14">
         <f t="shared" si="1"/>
         <v>10.599999999999998</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C21" s="15" t="str">
+      <c r="B21" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C21" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D21" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="15">
+      <c r="D21" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="14">
         <v>2037</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <f t="shared" si="1"/>
         <v>10.699999999999998</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C22" s="15" t="str">
+      <c r="B22" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C22" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D22" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="15">
+      <c r="D22" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="14">
         <v>2038</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="14">
         <f t="shared" si="1"/>
         <v>10.799999999999997</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C23" s="15" t="str">
+      <c r="B23" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C23" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D23" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="15">
+      <c r="D23" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="14">
         <v>2039</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="14">
         <f t="shared" si="1"/>
         <v>10.899999999999997</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C24" s="15" t="str">
+      <c r="B24" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C24" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D24" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="15">
+      <c r="D24" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="14">
         <v>2040</v>
       </c>
-      <c r="G24" s="15">
+      <c r="G24" s="14">
         <f t="shared" si="1"/>
         <v>10.999999999999996</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C25" s="15" t="str">
+      <c r="B25" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C25" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D25" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="15">
+      <c r="D25" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="14">
         <v>2041</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="14">
         <f t="shared" si="1"/>
         <v>11.099999999999996</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C26" s="15" t="str">
+      <c r="B26" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C26" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D26" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="15">
+      <c r="D26" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="14">
         <v>2042</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="14">
         <f t="shared" si="1"/>
         <v>11.199999999999996</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C27" s="15" t="str">
+      <c r="B27" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C27" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D27" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="15">
+      <c r="D27" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="14">
         <v>2043</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="14">
         <f t="shared" si="1"/>
         <v>11.299999999999995</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C28" s="15" t="str">
+      <c r="B28" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C28" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D28" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="15">
+      <c r="D28" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="14">
         <v>2044</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="14">
         <f t="shared" si="1"/>
         <v>11.399999999999995</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C29" s="15" t="str">
+      <c r="B29" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C29" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D29" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="15">
+      <c r="D29" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="14">
         <v>2045</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="14">
         <f t="shared" si="1"/>
         <v>11.499999999999995</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C30" s="15" t="str">
+      <c r="B30" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C30" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D30" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="15">
+      <c r="D30" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="14">
         <v>2046</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="14">
         <f t="shared" si="1"/>
         <v>11.599999999999994</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C31" s="15" t="str">
+      <c r="B31" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C31" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D31" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="15">
+      <c r="D31" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="14">
         <v>2047</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="14">
         <f t="shared" si="1"/>
         <v>11.699999999999994</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C32" s="15" t="str">
+      <c r="B32" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C32" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D32" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="15">
+      <c r="D32" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="14">
         <v>2048</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="14">
         <f t="shared" si="1"/>
         <v>11.799999999999994</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C33" s="15" t="str">
+      <c r="B33" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C33" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D33" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="15">
+      <c r="D33" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="14">
         <v>2049</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="14">
         <f t="shared" si="1"/>
         <v>11.899999999999993</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C34" s="15" t="str">
+      <c r="B34" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C34" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D34" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="15">
+      <c r="D34" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="14">
         <v>2050</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="14">
         <f t="shared" si="1"/>
         <v>11.999999999999993</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C35" s="15" t="str">
+      <c r="B35" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C35" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D35" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="15">
+      <c r="D35" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="14">
         <v>2051</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="14">
         <f t="shared" si="1"/>
         <v>12.099999999999993</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C36" s="15" t="str">
+      <c r="B36" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C36" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D36" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="15">
+      <c r="D36" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="14">
         <v>2052</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="14">
         <f t="shared" si="1"/>
         <v>12.199999999999992</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="str">
-        <f>Commodities!$D$4</f>
-        <v>ELC_DEM</v>
-      </c>
-      <c r="C37" s="15" t="str">
+      <c r="B37" s="14" t="str">
+        <f>Commodities!$D$4</f>
+        <v>ELC_DEM</v>
+      </c>
+      <c r="C37" s="14" t="str">
         <f t="shared" si="0"/>
         <v>REG1</v>
       </c>
-      <c r="D37" s="15" t="str">
-        <f>Processes!$E$3</f>
-        <v>Portefolio electricity demand process</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F37" s="15">
+      <c r="D37" s="14" t="str">
+        <f>Processes!$E$3</f>
+        <v>Portefolio electricity demand process</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="14">
         <v>2053</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="14">
         <f t="shared" si="1"/>
         <v>12.299999999999992</v>
       </c>
